--- a/src/Entrega3.xlsx
+++ b/src/Entrega3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\OneDrive\Documentos\UBA\1ero-2020\Numerico\TPs\entrega-2\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69CDCAF-9271-424F-909F-3B7B0A7880E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3A99E-2DCF-4F12-BAB9-F1EF815730F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
   <si>
     <t>FRA</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>Entrega 2:</t>
+  </si>
+  <si>
+    <t>Entega 3: Nube de datos + Promedios</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -487,6 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,7 +1715,816 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>datos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G:$G</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H:$H</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3838</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2931</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3922</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4611</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5605</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5605</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5233</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4267</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3912</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3881</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4342</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1613</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2673</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5497</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B546-4B67-B38D-A9F6D97B4B37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>promedio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J:$J</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K:$K</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>421.4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1780.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4203.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>3373.8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2272.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>603.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B546-4B67-B38D-A9F6D97B4B37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="682410720"/>
+        <c:axId val="682412360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="682410720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682412360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="682412360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682410720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2264,20 +3080,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>460001</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11765</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>183776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>546846</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2297,6 +3629,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD56708-BCB7-4CF0-BCA4-5076A0E9D33F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2604,21 +3972,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD16D5C-3915-4797-AD42-A46A7196562F}">
   <dimension ref="A1:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:E121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2643,11 +4011,13 @@
       <c r="I1" s="7">
         <v>5.8817509990100802</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8">
+        <v>0</v>
+      </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,21 +4042,29 @@
       <c r="I2" s="6">
         <v>8.2118466341801692</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="N2" s="5">
+      <c r="J2" s="6">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6">
+        <f>SUM(H1:H10)/10</f>
+        <v>27.4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="5">
         <v>-2.0218392000000001</v>
       </c>
-      <c r="O2" s="5">
+      <c r="T2" s="5">
         <v>9.4542953200000002E-2</v>
       </c>
-      <c r="P2" s="5">
+      <c r="U2" s="5">
         <v>-7.6529531400000001E-6</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2711,12 +4089,14 @@
       <c r="I3" s="6">
         <v>11.3685751026891</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6">
+        <v>10</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,12 +4121,17 @@
       <c r="I4" s="6">
         <v>15.606382643791701</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="8">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5">
+        <f>SUM(H11:H20)/10</f>
+        <v>421.4</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,12 +4156,14 @@
       <c r="I5" s="6">
         <v>21.243666609114101</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="8">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2801,12 +4188,17 @@
       <c r="I6" s="6">
         <v>28.673962555657099</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="8">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5">
+        <f>SUM(H21:H30)/10</f>
+        <v>1780.3</v>
+      </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,12 +4223,14 @@
       <c r="I7" s="6">
         <v>38.377524786315703</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>30</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,12 +4255,17 @@
       <c r="I8" s="6">
         <v>50.9327608836849</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="6">
+        <v>35</v>
+      </c>
+      <c r="K8" s="6">
+        <f>SUM(H31:H40)/10</f>
+        <v>4203.6000000000004</v>
+      </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2891,12 +4290,14 @@
       <c r="I9" s="6">
         <v>67.026800087482499</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="8">
+        <v>40</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2921,12 +4322,17 @@
       <c r="I10" s="6">
         <v>87.464287916325205</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="8">
+        <v>45</v>
+      </c>
+      <c r="K10" s="5">
+        <f>SUM(H41:H50)/10</f>
+        <v>3373.8</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2951,12 +4357,14 @@
       <c r="I11" s="6">
         <v>113.17331927231101</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="8">
+        <v>50</v>
+      </c>
+      <c r="K11" s="6"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,12 +4389,17 @@
       <c r="I12" s="6">
         <v>145.207267443223</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="6">
+        <v>55</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(H51:H60)/10</f>
+        <v>2272.8000000000002</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3011,12 +4424,14 @@
       <c r="I13" s="6">
         <v>184.74115840587899</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="6">
+        <v>60</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3041,12 +4456,17 @@
       <c r="I14" s="6">
         <v>233.06120235993799</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="8">
+        <v>65</v>
+      </c>
+      <c r="K14" s="6">
+        <f>SUM(H61:H70)/10</f>
+        <v>603.1</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3071,12 +4491,14 @@
       <c r="I15" s="6">
         <v>291.54615166417398</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="8">
+        <v>70</v>
+      </c>
+      <c r="K15" s="5"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +4528,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,7 +4558,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +4588,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +4618,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3226,7 +4648,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +4678,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +4708,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +4738,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +4768,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3376,7 +4798,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +4828,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +4858,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +4888,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +4918,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +4948,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,10 +4975,13 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
+      <c r="R31" t="s">
+        <v>124</v>
+      </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +5011,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +5041,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +5071,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +5101,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +5131,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +5161,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +5191,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3796,7 +5221,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +5251,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +5281,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3886,7 +5311,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3916,7 +5341,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +5371,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +5401,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -4006,7 +5431,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +5461,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +5491,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -4095,7 +5520,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +5550,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -4155,7 +5580,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -4185,7 +5610,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +5640,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +5670,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -4275,7 +5700,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +5730,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +5760,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -4365,7 +5790,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +5820,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -4425,7 +5850,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -4455,7 +5880,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -4485,7 +5910,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +5940,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +5970,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +6000,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -4595,7 +6020,7 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +6040,7 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -4635,7 +6060,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -4658,7 +6083,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -4681,7 +6106,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -4701,7 +6126,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +6146,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +6166,7 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +6186,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +6206,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +6226,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +6246,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +6266,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -4861,7 +6286,7 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +6306,7 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -4901,7 +6326,7 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -4921,7 +6346,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -4941,7 +6366,7 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -4961,7 +6386,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -4981,7 +6406,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +6426,7 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +6446,7 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -5041,7 +6466,7 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +6486,7 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +6506,7 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -5101,7 +6526,7 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +6549,7 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -5147,7 +6572,7 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -5170,7 +6595,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +6615,7 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -5210,7 +6635,7 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +6655,7 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -5250,7 +6675,7 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -5270,7 +6695,7 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -5290,7 +6715,7 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -5310,7 +6735,7 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -5330,7 +6755,7 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -5350,7 +6775,7 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -5370,7 +6795,7 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -5390,7 +6815,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +6835,7 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +6855,7 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +6875,7 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -5473,7 +6898,7 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +6921,7 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -5519,7 +6944,7 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -5542,7 +6967,7 @@
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -5562,7 +6987,7 @@
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +7007,7 @@
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +7027,7 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -5622,7 +7047,7 @@
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -5642,7 +7067,7 @@
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +7087,7 @@
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -5682,7 +7107,7 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -5702,7 +7127,7 @@
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
